--- a/myPrezData/candidatesPartiesSpectrum2016.xlsx
+++ b/myPrezData/candidatesPartiesSpectrum2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/prezPlayPro/myPrezData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF96F86-712F-9D46-8313-6CBF06C42756}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D4C99B-5B28-4742-BF72-0B5B4271BAC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="580" windowWidth="24500" windowHeight="26640" activeTab="2" xr2:uid="{87433C3B-EA4B-0B45-8D78-A6CC33F02859}"/>
+    <workbookView xWindow="25160" yWindow="460" windowWidth="26020" windowHeight="26640" activeTab="1" xr2:uid="{87433C3B-EA4B-0B45-8D78-A6CC33F02859}"/>
   </bookViews>
   <sheets>
     <sheet name="hidden" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Just 31 flavors'!$A$1:$J$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$F$300</definedName>
     <definedName name="candidatesPartiesSpectrum2016" localSheetId="0">hidden!$A$1:$E$300</definedName>
     <definedName name="candidatesPartiesSpectrum2016" localSheetId="2">Sheet2!$A$1:$E$300</definedName>
@@ -34,7 +35,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{2E19E6A2-00F1-8540-901C-15E8285F4A26}" name="candidatesPartiesSpectrum2016" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jay/Documents/GitHub/prezPlayPro/myPrezData/candidatesPartiesSpectrum2016.csv" tab="0" semicolon="1">
+    <textPr sourceFile="/Users/jay/Documents/GitHub/prezPlayPro/myPrezData/candidatesPartiesSpectrum2016.csv" tab="0" semicolon="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -45,7 +46,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{25CFD1F8-0436-5941-A77D-F28BFDCDA89B}" name="candidatesPartiesSpectrum20161" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jay/Documents/GitHub/prezPlayPro/myPrezData/candidatesPartiesSpectrum2016.csv" tab="0" semicolon="1">
+    <textPr sourceFile="/Users/jay/Documents/GitHub/prezPlayPro/myPrezData/candidatesPartiesSpectrum2016.csv" tab="0" semicolon="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="118">
   <si>
     <t>candidateID</t>
   </si>
@@ -401,6 +402,18 @@
   </si>
   <si>
     <t>#a569bd</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>NEITHER</t>
   </si>
 </sst>
 </file>
@@ -7165,10 +7178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F3990E-2560-9548-9F0B-D881280D4FF2}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7179,9 +7192,10 @@
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7200,468 +7214,618 @@
       <c r="F1" s="36" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="64">
+      <c r="G1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="42">
+        <v>6</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="55">
+        <v>19</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="57">
+        <v>21</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <v>23</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="62">
+        <v>26</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="62">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="48">
+        <v>12</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="48">
+        <v>1</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="49">
+        <v>13</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
+        <v>14</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="50">
+        <v>1</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
+        <v>17</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="53">
+        <v>1</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="54">
+        <v>18</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="54">
+        <v>1</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
+        <v>20</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="56">
+        <v>1</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="58">
+        <v>22</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="58">
+        <v>1</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="63">
+        <v>27</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="63">
+        <v>1</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="64">
         <v>28</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B16" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C16" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="64">
-        <v>1</v>
-      </c>
-      <c r="F2" s="64" t="s">
+      <c r="D16" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+      <c r="F16" s="64" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="66">
+      <c r="G16" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="66">
         <v>30</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B17" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C17" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="66">
-        <v>1</v>
-      </c>
-      <c r="F3" s="66" t="s">
+      <c r="D17" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="66">
+        <v>1</v>
+      </c>
+      <c r="F17" s="66" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="67">
+      <c r="G17" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="67">
         <v>31</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B18" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C18" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="67">
-        <v>1</v>
-      </c>
-      <c r="F4" s="67" t="s">
+      <c r="D18" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="67">
+        <v>1</v>
+      </c>
+      <c r="F18" s="67" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
-        <v>12</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="48">
-        <v>1</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
-        <v>13</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="49">
-        <v>1</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
+      <c r="G18" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="39">
+        <v>3</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="50">
-        <v>1</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
-        <v>17</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="53">
-        <v>1</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="54">
+      <c r="C19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="39">
+        <v>2</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
+        <v>10</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="46">
+        <v>2</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="41">
+        <v>5</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="54">
-        <v>1</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="C21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="56">
-        <v>1</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="58">
-        <v>22</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="58">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="63">
-        <v>27</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="63">
-        <v>1</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="D21" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="41">
         <v>3</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="39" t="s">
+      <c r="F21" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="52">
         <v>16</v>
       </c>
-      <c r="E13" s="39">
-        <v>2</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="59">
-        <v>23</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="59">
-        <v>0</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="62">
-        <v>26</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="62">
-        <v>0</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
-        <v>1</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="B22" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="52">
+        <v>3</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="60">
+        <v>24</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="60">
+        <v>3</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" s="60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="65">
+        <v>29</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="65">
         <v>4</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
-        <v>6</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
-        <v>10</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="46">
-        <v>2</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="41">
-        <v>5</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="41">
-        <v>3</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="52">
-        <v>16</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="52">
-        <v>3</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="60">
-        <v>24</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="60">
-        <v>3</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="55">
-        <v>19</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="55">
-        <v>0</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="65">
+      <c r="F24" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="65">
         <v>29</v>
       </c>
-      <c r="B23" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="65">
-        <v>4</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="45">
-        <v>9</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="45">
-        <v>5</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
         <v>2</v>
       </c>
@@ -7680,8 +7844,14 @@
       <c r="F25" s="38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="40">
         <v>4</v>
       </c>
@@ -7700,108 +7870,144 @@
       <c r="F26" s="40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="51">
+      <c r="H26" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="43">
+        <v>7</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="43">
+        <v>5</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="44">
+        <v>8</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="44">
+        <v>5</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="45">
+        <v>9</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="45">
+        <v>5</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="47">
+        <v>11</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="47">
+        <v>5</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="51">
         <v>15</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B31" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C31" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="51">
-        <v>5</v>
-      </c>
-      <c r="F27" s="51" t="s">
+      <c r="D31" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="51">
+        <v>5</v>
+      </c>
+      <c r="F31" s="51" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="43">
-        <v>7</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="43">
-        <v>5</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="57">
-        <v>21</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="57">
-        <v>0</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="44">
-        <v>8</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="44">
-        <v>5</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
-        <v>11</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="47">
-        <v>5</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="61">
         <v>25</v>
       </c>
@@ -7820,8 +8026,22 @@
       <c r="F32" s="61" t="s">
         <v>90</v>
       </c>
+      <c r="H32" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="61">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J32" xr:uid="{1E04FA0E-C7F1-7A41-8906-BD945ADD32B5}">
+    <sortState ref="A2:J32">
+      <sortCondition ref="E9"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:J32">
+    <sortCondition ref="A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7830,7 +8050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E7AABC-5407-EF40-A369-42B268327144}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
